--- a/docentes/Rodríguez Román Leticia - Estadisticos 20211.xlsx
+++ b/docentes/Rodríguez Román Leticia - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="93">
   <si>
     <t>Mat</t>
   </si>
@@ -76,10 +76,31 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>ALVARADO</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
+    <t>CASTELLANOS</t>
+  </si>
+  <si>
+    <t>PONCE</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>BAUTISTA</t>
+  </si>
+  <si>
+    <t>PARRA</t>
+  </si>
+  <si>
+    <t>QUIRIZ</t>
+  </si>
+  <si>
+    <t>ANASTACIO</t>
   </si>
   <si>
     <t>BERISTAIN</t>
@@ -88,79 +109,70 @@
     <t>COLOHUA</t>
   </si>
   <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>JUSTO</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>CANSECO</t>
+  </si>
+  <si>
+    <t>MATA</t>
+  </si>
+  <si>
+    <t>BERNARDO</t>
+  </si>
+  <si>
+    <t>CID</t>
+  </si>
+  <si>
     <t>CRUZ</t>
   </si>
   <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>JUSTO</t>
-  </si>
-  <si>
-    <t>LIMA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>TLECUILE</t>
-  </si>
-  <si>
-    <t>VARGAS</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>BASILIO</t>
-  </si>
-  <si>
-    <t>CANSECO</t>
-  </si>
-  <si>
-    <t>DEMUNER</t>
-  </si>
-  <si>
-    <t>GASCA</t>
-  </si>
-  <si>
-    <t>LOBATO</t>
-  </si>
-  <si>
-    <t>MATA</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>XOCUA</t>
-  </si>
-  <si>
-    <t>CIRUELO</t>
-  </si>
-  <si>
-    <t>MARIA</t>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>VALENTE</t>
+  </si>
+  <si>
+    <t>TEQUIHUATLE</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>QUIAHUA</t>
+  </si>
+  <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
   </si>
   <si>
     <t>APALE</t>
@@ -169,85 +181,70 @@
     <t>RAMIREZ</t>
   </si>
   <si>
-    <t>CONDE</t>
-  </si>
-  <si>
     <t>IXMATLAHUA</t>
   </si>
   <si>
-    <t>CERVANTES</t>
-  </si>
-  <si>
     <t>GALEOTE</t>
   </si>
   <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>SALGADO</t>
-  </si>
-  <si>
-    <t>ENRIQUEZ</t>
-  </si>
-  <si>
     <t>LORENZO</t>
   </si>
   <si>
-    <t>MARINERO</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
     <t>LEON</t>
   </si>
   <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>VALLEJO</t>
-  </si>
-  <si>
     <t>TETLA</t>
   </si>
   <si>
-    <t>ESTEVEZ</t>
-  </si>
-  <si>
     <t>LEAL</t>
   </si>
   <si>
     <t>CERON</t>
   </si>
   <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>ALONSO</t>
-  </si>
-  <si>
-    <t>MIXCOA</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>MELO</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>FATIMA</t>
-  </si>
-  <si>
-    <t>JOSSELIN GUADALUPE</t>
+    <t>CONCHOA</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>ROSETE</t>
+  </si>
+  <si>
+    <t>GAMEZ</t>
+  </si>
+  <si>
+    <t>JENNIFER</t>
+  </si>
+  <si>
+    <t>ALETHIA LUCIA</t>
+  </si>
+  <si>
+    <t>FABIOLA</t>
+  </si>
+  <si>
+    <t>ARLET</t>
+  </si>
+  <si>
+    <t>ROSARIO</t>
+  </si>
+  <si>
+    <t>LUIS YAEL</t>
+  </si>
+  <si>
+    <t>DINA BERENICE</t>
+  </si>
+  <si>
+    <t>SUEMI</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>HIRAM FABIAN</t>
   </si>
   <si>
     <t>JOSE ISAIAS</t>
@@ -256,94 +253,49 @@
     <t>FERNANDA</t>
   </si>
   <si>
-    <t>JUAN ALBERTO</t>
-  </si>
-  <si>
     <t>JENIFER</t>
   </si>
   <si>
-    <t>VICTORINO</t>
-  </si>
-  <si>
     <t>GERMAN ISAI</t>
   </si>
   <si>
-    <t>MARIA ISABEL</t>
-  </si>
-  <si>
-    <t>ARTURO</t>
-  </si>
-  <si>
-    <t>YAZMIN</t>
-  </si>
-  <si>
     <t>EVELYN</t>
   </si>
   <si>
-    <t>MERARY MADAY</t>
-  </si>
-  <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
     <t>ITZEL</t>
   </si>
   <si>
-    <t>FERNANDO VADHIR</t>
-  </si>
-  <si>
-    <t>CYNTHIA AIDEE</t>
-  </si>
-  <si>
-    <t>SAUL</t>
-  </si>
-  <si>
     <t>SELINA</t>
   </si>
   <si>
     <t>ERIKA</t>
   </si>
   <si>
-    <t>VANESA</t>
-  </si>
-  <si>
     <t>ANGELA</t>
   </si>
   <si>
-    <t>ADRIANA ARELY</t>
-  </si>
-  <si>
-    <t>ARANTXA</t>
-  </si>
-  <si>
     <t>MARIA YAZMIN</t>
   </si>
   <si>
-    <t>JAEL SAMAI</t>
-  </si>
-  <si>
-    <t>LIZBET</t>
-  </si>
-  <si>
-    <t>DANIELA RUBI</t>
-  </si>
-  <si>
     <t>CRISTIAN ARTURO</t>
   </si>
   <si>
-    <t>JAROMI YAJAIRA</t>
-  </si>
-  <si>
     <t>BERENICE</t>
   </si>
   <si>
-    <t>IRIS VIANNEY</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>AYARI</t>
+    <t>URIEL</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>SERGIO MARIANO</t>
+  </si>
+  <si>
+    <t>CESAR OMAR</t>
+  </si>
+  <si>
+    <t>ABIUD</t>
   </si>
 </sst>
 </file>
@@ -770,16 +722,19 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>43.59</v>
+      </c>
+      <c r="H3">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -793,16 +748,19 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>42.86</v>
+      </c>
+      <c r="H4">
+        <v>8.1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -816,16 +774,19 @@
         <v>32</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>40.63</v>
+      </c>
+      <c r="H5">
+        <v>7.2</v>
       </c>
     </row>
   </sheetData>
@@ -907,7 +868,7 @@
         <v>39</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -930,7 +891,7 @@
         <v>35</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -953,7 +914,7 @@
         <v>32</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1038,16 +999,19 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>43.59</v>
+      </c>
+      <c r="H3">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1061,16 +1025,19 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>42.86</v>
+      </c>
+      <c r="H4">
+        <v>8.1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1084,16 +1051,19 @@
         <v>32</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>40.63</v>
+      </c>
+      <c r="H5">
+        <v>7.2</v>
       </c>
     </row>
   </sheetData>
@@ -1103,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1138,16 +1108,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920187</v>
+        <v>20330051920223</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1161,16 +1131,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920221</v>
+        <v>20330051920245</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1184,16 +1154,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920374</v>
+        <v>20330051920250</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1207,16 +1177,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920224</v>
+        <v>20330051920252</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1230,16 +1200,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920225</v>
+        <v>20330051920253</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1253,22 +1223,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920375</v>
+        <v>20330051920156</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1276,22 +1246,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920227</v>
+        <v>20330051920158</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1299,22 +1269,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920228</v>
+        <v>20330051920306</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1322,22 +1292,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920229</v>
+        <v>20330051920178</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -1345,22 +1315,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920230</v>
+        <v>20330051920042</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -1368,16 +1338,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20330051920231</v>
+        <v>20330051920374</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1391,16 +1361,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>20330051920232</v>
+        <v>20330051920224</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1414,16 +1384,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>20330051920376</v>
+        <v>20330051920375</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1437,16 +1407,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>20330051920238</v>
+        <v>20330051920228</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1460,16 +1430,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>20330051920241</v>
+        <v>20330051920232</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -1483,16 +1453,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>20330051920248</v>
+        <v>20330051920241</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -1506,16 +1476,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>20330051920249</v>
+        <v>20330051920257</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -1529,16 +1499,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>20330051920256</v>
+        <v>20330051920258</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -1552,22 +1522,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>20330051920257</v>
+        <v>20330051920161</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20">
         <v>6</v>
@@ -1575,22 +1545,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>20330051920258</v>
+        <v>20330051920372</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G21">
         <v>6</v>
@@ -1598,16 +1568,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>20330051920369</v>
+        <v>20330051920172</v>
       </c>
       <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
         <v>36</v>
       </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -1621,16 +1591,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>20330051920161</v>
+        <v>20330051920254</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -1644,22 +1614,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>20330051920163</v>
+        <v>20330051920044</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>6</v>
@@ -1667,22 +1637,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>20330051920370</v>
+        <v>20330051920046</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -1690,22 +1660,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>20330051920372</v>
+        <v>20330051920051</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -1713,22 +1683,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>20330051920165</v>
+        <v>20330051920101</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -1736,22 +1706,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>20330051920167</v>
+        <v>20330051920105</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28">
         <v>6</v>
@@ -1759,162 +1729,24 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>20330051920171</v>
+        <v>20330051920111</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>20330051920172</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>20330051920180</v>
-      </c>
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>20330051920254</v>
-      </c>
-      <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>20330051920181</v>
-      </c>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>20330051920182</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>20330051920186</v>
-      </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35">
         <v>6</v>
       </c>
     </row>

--- a/docentes/Rodríguez Román Leticia - Estadisticos 20211.xlsx
+++ b/docentes/Rodríguez Román Leticia - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="116">
   <si>
     <t>Mat</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>ADELL</t>
+  </si>
+  <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
+    <t>COCOTLE</t>
+  </si>
+  <si>
     <t>CASTELLANOS</t>
   </si>
   <si>
@@ -91,42 +100,54 @@
     <t>ANTONIO</t>
   </si>
   <si>
+    <t>PARRA</t>
+  </si>
+  <si>
+    <t>QUIRIZ</t>
+  </si>
+  <si>
+    <t>ANASTACIO</t>
+  </si>
+  <si>
+    <t>COLOTL</t>
+  </si>
+  <si>
+    <t>ESPIRITU</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>TEQUIHUATLE</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>BERISTAIN</t>
+  </si>
+  <si>
+    <t>COLOHUA</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>JUSTO</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
     <t>BAUTISTA</t>
   </si>
   <si>
-    <t>PARRA</t>
-  </si>
-  <si>
-    <t>QUIRIZ</t>
-  </si>
-  <si>
-    <t>ANASTACIO</t>
-  </si>
-  <si>
-    <t>BERISTAIN</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>JUSTO</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>VARGAS</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
     <t>CANSECO</t>
   </si>
   <si>
@@ -151,7 +172,13 @@
     <t>VALENTE</t>
   </si>
   <si>
-    <t>TEQUIHUATLE</t>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
   </si>
   <si>
     <t>GOMEZ</t>
@@ -166,36 +193,45 @@
     <t>GUERRA</t>
   </si>
   <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>BALDERAS</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>COXCAHUA</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>GALEOTE</t>
+  </si>
+  <si>
+    <t>LORENZO</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>TETLA</t>
+  </si>
+  <si>
     <t>DIAZ</t>
   </si>
   <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>GALEOTE</t>
-  </si>
-  <si>
-    <t>LORENZO</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>TETLA</t>
-  </si>
-  <si>
     <t>LEAL</t>
   </si>
   <si>
@@ -217,6 +253,15 @@
     <t>GAMEZ</t>
   </si>
   <si>
+    <t>CRISTOPHER ALAIN</t>
+  </si>
+  <si>
+    <t>JAIR</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
     <t>JENNIFER</t>
   </si>
   <si>
@@ -235,40 +280,64 @@
     <t>LUIS YAEL</t>
   </si>
   <si>
+    <t>SUEMI</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>HIRAM FABIAN</t>
+  </si>
+  <si>
+    <t>ALMA RUBI</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>IGNACIO</t>
+  </si>
+  <si>
+    <t>JUAN MANUEL</t>
+  </si>
+  <si>
+    <t>LUIS ALEJANDRO</t>
+  </si>
+  <si>
+    <t>DULCE MARIA</t>
+  </si>
+  <si>
+    <t>MISAEL</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>JOSE ISAIAS</t>
+  </si>
+  <si>
+    <t>FERNANDA</t>
+  </si>
+  <si>
+    <t>JENIFER</t>
+  </si>
+  <si>
+    <t>GERMAN ISAI</t>
+  </si>
+  <si>
+    <t>EVELYN</t>
+  </si>
+  <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
+    <t>SELINA</t>
+  </si>
+  <si>
+    <t>ERIKA</t>
+  </si>
+  <si>
     <t>DINA BERENICE</t>
-  </si>
-  <si>
-    <t>SUEMI</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>HIRAM FABIAN</t>
-  </si>
-  <si>
-    <t>JOSE ISAIAS</t>
-  </si>
-  <si>
-    <t>FERNANDA</t>
-  </si>
-  <si>
-    <t>JENIFER</t>
-  </si>
-  <si>
-    <t>GERMAN ISAI</t>
-  </si>
-  <si>
-    <t>EVELYN</t>
-  </si>
-  <si>
-    <t>ITZEL</t>
-  </si>
-  <si>
-    <t>SELINA</t>
-  </si>
-  <si>
-    <t>ERIKA</t>
   </si>
   <si>
     <t>ANGELA</t>
@@ -696,19 +765,22 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>19.44</v>
+      </c>
+      <c r="H2">
+        <v>7.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -745,10 +817,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -757,7 +829,7 @@
         <v>15</v>
       </c>
       <c r="G4">
-        <v>42.86</v>
+        <v>41.67</v>
       </c>
       <c r="H4">
         <v>8.1</v>
@@ -839,13 +911,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -885,10 +957,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>15</v>
@@ -973,19 +1045,22 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>19.44</v>
+      </c>
+      <c r="H2">
+        <v>7.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1022,10 +1097,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1034,7 +1109,7 @@
         <v>15</v>
       </c>
       <c r="G4">
-        <v>42.86</v>
+        <v>41.67</v>
       </c>
       <c r="H4">
         <v>8.1</v>
@@ -1073,7 +1148,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1108,22 +1183,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920223</v>
+        <v>20330051920002</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -1131,22 +1206,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920245</v>
+        <v>20330051920361</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -1154,22 +1229,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920250</v>
+        <v>20330051920009</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1177,16 +1252,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920252</v>
+        <v>20330051920223</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1200,16 +1275,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920253</v>
+        <v>20330051920245</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1223,22 +1298,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920156</v>
+        <v>20330051920250</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1246,22 +1321,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920158</v>
+        <v>20330051920252</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1269,22 +1344,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920306</v>
+        <v>20330051920253</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1292,16 +1367,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920178</v>
+        <v>20330051920156</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1315,22 +1390,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920042</v>
+        <v>20330051920306</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -1338,22 +1413,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20330051920374</v>
+        <v>20330051920178</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12">
         <v>6</v>
@@ -1361,22 +1436,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>20330051920224</v>
+        <v>20330051920042</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>6</v>
@@ -1384,22 +1459,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>20330051920375</v>
+        <v>20330051920007</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -1407,22 +1482,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>20330051920228</v>
+        <v>20330051920011</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15">
         <v>6</v>
@@ -1430,22 +1505,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>20330051920232</v>
+        <v>20330051920012</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16">
         <v>6</v>
@@ -1453,22 +1528,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>20330051920241</v>
+        <v>20330051920015</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>6</v>
@@ -1476,22 +1551,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>20330051920257</v>
+        <v>20330051920027</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>6</v>
@@ -1499,22 +1574,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>20330051920258</v>
+        <v>20330051920028</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19">
         <v>6</v>
@@ -1522,22 +1597,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>20330051920161</v>
+        <v>20330051920032</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>6</v>
@@ -1545,22 +1620,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>20330051920372</v>
+        <v>20330051920036</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G21">
         <v>6</v>
@@ -1568,22 +1643,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>20330051920172</v>
+        <v>20330051920374</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -1591,22 +1666,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>20330051920254</v>
+        <v>20330051920224</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23">
         <v>6</v>
@@ -1614,22 +1689,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>20330051920044</v>
+        <v>20330051920375</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G24">
         <v>6</v>
@@ -1637,22 +1712,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>20330051920046</v>
+        <v>20330051920228</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -1660,22 +1735,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>20330051920051</v>
+        <v>20330051920232</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -1683,22 +1758,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>20330051920101</v>
+        <v>20330051920241</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -1706,22 +1781,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>20330051920105</v>
+        <v>20330051920257</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G28">
         <v>6</v>
@@ -1729,24 +1804,277 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
+        <v>20330051920258</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>20330051920158</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>20330051920161</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>20330051920372</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>20330051920172</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>20330051920254</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>20330051920044</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>20330051920046</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>20330051920051</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>20330051920101</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>20330051920105</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
         <v>20330051920111</v>
       </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
         <v>12</v>
       </c>
-      <c r="G29">
+      <c r="G40">
         <v>6</v>
       </c>
     </row>

--- a/docentes/Rodríguez Román Leticia - Estadisticos 20211.xlsx
+++ b/docentes/Rodríguez Román Leticia - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="66">
   <si>
     <t>Mat</t>
   </si>
@@ -82,174 +82,87 @@
     <t>BARRAGAN</t>
   </si>
   <si>
-    <t>COCOTLE</t>
-  </si>
-  <si>
-    <t>CASTELLANOS</t>
-  </si>
-  <si>
     <t>PONCE</t>
   </si>
   <si>
+    <t>QUIRIZ</t>
+  </si>
+  <si>
+    <t>ANASTACIO</t>
+  </si>
+  <si>
+    <t>ESPIRITU</t>
+  </si>
+  <si>
     <t>ROMAN</t>
   </si>
   <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>COLOHUA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>BAUTISTA</t>
+  </si>
+  <si>
+    <t>CANSECO</t>
+  </si>
+  <si>
+    <t>MATA</t>
+  </si>
+  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>PARRA</t>
-  </si>
-  <si>
-    <t>QUIRIZ</t>
-  </si>
-  <si>
-    <t>ANASTACIO</t>
-  </si>
-  <si>
-    <t>COLOTL</t>
-  </si>
-  <si>
-    <t>ESPIRITU</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>VALENTE</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
   </si>
   <si>
     <t>TEQUIHUATLE</t>
   </si>
   <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>BERISTAIN</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>JUSTO</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>VARGAS</t>
-  </si>
-  <si>
-    <t>BAUTISTA</t>
-  </si>
-  <si>
-    <t>CANSECO</t>
-  </si>
-  <si>
-    <t>MATA</t>
-  </si>
-  <si>
-    <t>BERNARDO</t>
-  </si>
-  <si>
-    <t>CID</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
+    <t>GONZALEZ</t>
   </si>
   <si>
     <t>RODRIGUEZ</t>
   </si>
   <si>
-    <t>VALENTE</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>QUIAHUA</t>
-  </si>
-  <si>
-    <t>GUERRA</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>BALDERAS</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>COXCAHUA</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
     <t>RAMIREZ</t>
   </si>
   <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
     <t>GALEOTE</t>
   </si>
   <si>
-    <t>LORENZO</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>TETLA</t>
-  </si>
-  <si>
     <t>DIAZ</t>
   </si>
   <si>
     <t>LEAL</t>
   </si>
   <si>
-    <t>CERON</t>
-  </si>
-  <si>
-    <t>CONCHOA</t>
-  </si>
-  <si>
     <t>VALENCIA</t>
   </si>
   <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>ROSETE</t>
-  </si>
-  <si>
     <t>GAMEZ</t>
   </si>
   <si>
@@ -259,109 +172,46 @@
     <t>JAIR</t>
   </si>
   <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>JENNIFER</t>
-  </si>
-  <si>
     <t>ALETHIA LUCIA</t>
   </si>
   <si>
-    <t>FABIOLA</t>
-  </si>
-  <si>
-    <t>ARLET</t>
-  </si>
-  <si>
-    <t>ROSARIO</t>
-  </si>
-  <si>
-    <t>LUIS YAEL</t>
-  </si>
-  <si>
-    <t>SUEMI</t>
-  </si>
-  <si>
     <t>MONICA</t>
   </si>
   <si>
     <t>HIRAM FABIAN</t>
   </si>
   <si>
-    <t>ALMA RUBI</t>
-  </si>
-  <si>
     <t>ALEJANDRO</t>
   </si>
   <si>
     <t>IGNACIO</t>
   </si>
   <si>
-    <t>JUAN MANUEL</t>
-  </si>
-  <si>
     <t>LUIS ALEJANDRO</t>
   </si>
   <si>
-    <t>DULCE MARIA</t>
-  </si>
-  <si>
-    <t>MISAEL</t>
-  </si>
-  <si>
     <t>JOSE ANTONIO</t>
   </si>
   <si>
-    <t>JOSE ISAIAS</t>
-  </si>
-  <si>
     <t>FERNANDA</t>
   </si>
   <si>
-    <t>JENIFER</t>
-  </si>
-  <si>
     <t>GERMAN ISAI</t>
   </si>
   <si>
-    <t>EVELYN</t>
-  </si>
-  <si>
-    <t>ITZEL</t>
-  </si>
-  <si>
-    <t>SELINA</t>
-  </si>
-  <si>
-    <t>ERIKA</t>
-  </si>
-  <si>
     <t>DINA BERENICE</t>
   </si>
   <si>
     <t>ANGELA</t>
   </si>
   <si>
-    <t>MARIA YAZMIN</t>
-  </si>
-  <si>
     <t>CRISTIAN ARTURO</t>
   </si>
   <si>
     <t>BERENICE</t>
   </si>
   <si>
-    <t>URIEL</t>
-  </si>
-  <si>
     <t>JESUS</t>
-  </si>
-  <si>
-    <t>SERGIO MARIANO</t>
-  </si>
-  <si>
-    <t>CESAR OMAR</t>
   </si>
   <si>
     <t>ABIUD</t>
@@ -768,19 +618,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>19.44</v>
+        <v>33.33</v>
       </c>
       <c r="H2">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -794,19 +644,19 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G3">
-        <v>43.59</v>
+        <v>69.23</v>
       </c>
       <c r="H3">
-        <v>8.300000000000001</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -820,19 +670,19 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>41.67</v>
+        <v>52.78</v>
       </c>
       <c r="H4">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -846,19 +696,19 @@
         <v>32</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>40.63</v>
+        <v>53.13</v>
       </c>
       <c r="H5">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
     </row>
   </sheetData>
@@ -917,7 +767,7 @@
         <v>36</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -940,7 +790,7 @@
         <v>39</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -963,7 +813,7 @@
         <v>36</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -986,7 +836,7 @@
         <v>32</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1048,19 +898,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>19.44</v>
+        <v>33.33</v>
       </c>
       <c r="H2">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1074,19 +924,19 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G3">
-        <v>43.59</v>
+        <v>69.23</v>
       </c>
       <c r="H3">
-        <v>8.300000000000001</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1100,19 +950,19 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>41.67</v>
+        <v>52.78</v>
       </c>
       <c r="H4">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1126,19 +976,19 @@
         <v>32</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>40.63</v>
+        <v>53.13</v>
       </c>
       <c r="H5">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
     </row>
   </sheetData>
@@ -1148,7 +998,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1189,10 +1039,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1212,10 +1062,10 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1229,22 +1079,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920009</v>
+        <v>20330051920245</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1252,22 +1102,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920223</v>
+        <v>20330051920178</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -1275,22 +1125,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920245</v>
+        <v>20330051920042</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1298,22 +1148,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920250</v>
+        <v>20330051920011</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1321,22 +1171,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920252</v>
+        <v>20330051920012</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
         <v>55</v>
       </c>
-      <c r="D8" t="s">
-        <v>84</v>
-      </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1344,22 +1194,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920253</v>
+        <v>20330051920027</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
         <v>56</v>
       </c>
-      <c r="D9" t="s">
-        <v>85</v>
-      </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1367,22 +1217,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920156</v>
+        <v>20330051920036</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" t="s">
-        <v>86</v>
-      </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -1390,22 +1240,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920306</v>
+        <v>20330051920224</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -1413,22 +1263,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20330051920178</v>
+        <v>20330051920228</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>6</v>
@@ -1436,22 +1286,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>20330051920042</v>
+        <v>20330051920158</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13">
         <v>6</v>
@@ -1459,22 +1309,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>20330051920007</v>
+        <v>20330051920161</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -1482,22 +1332,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>20330051920011</v>
+        <v>20330051920172</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G15">
         <v>6</v>
@@ -1505,22 +1355,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>20330051920012</v>
+        <v>20330051920254</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G16">
         <v>6</v>
@@ -1528,22 +1378,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>20330051920015</v>
+        <v>20330051920046</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G17">
         <v>6</v>
@@ -1551,530 +1401,24 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>20330051920027</v>
+        <v>20330051920111</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>20330051920028</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>20330051920032</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>20330051920036</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>20330051920374</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>20330051920224</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>20330051920375</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>20330051920228</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>20330051920232</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>20330051920241</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>20330051920257</v>
-      </c>
-      <c r="B28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>20330051920258</v>
-      </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>20330051920158</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>20330051920161</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>20330051920372</v>
-      </c>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>20330051920172</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>20330051920254</v>
-      </c>
-      <c r="B34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>20330051920044</v>
-      </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>20330051920046</v>
-      </c>
-      <c r="B36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>20330051920051</v>
-      </c>
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>20330051920101</v>
-      </c>
-      <c r="B38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39">
-        <v>20330051920105</v>
-      </c>
-      <c r="B39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40">
-        <v>20330051920111</v>
-      </c>
-      <c r="B40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40">
         <v>6</v>
       </c>
     </row>

--- a/docentes/Rodríguez Román Leticia - Estadisticos 20211.xlsx
+++ b/docentes/Rodríguez Román Leticia - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="72">
   <si>
     <t>Mat</t>
   </si>
@@ -85,36 +85,42 @@
     <t>PONCE</t>
   </si>
   <si>
+    <t>HUESCA</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>ANASTACIO</t>
+  </si>
+  <si>
+    <t>ESPIRITU</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>COLOHUA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>BAUTISTA</t>
+  </si>
+  <si>
+    <t>CANSECO</t>
+  </si>
+  <si>
+    <t>MATA</t>
+  </si>
+  <si>
     <t>QUIRIZ</t>
   </si>
   <si>
-    <t>ANASTACIO</t>
-  </si>
-  <si>
-    <t>ESPIRITU</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>BAUTISTA</t>
-  </si>
-  <si>
-    <t>CANSECO</t>
-  </si>
-  <si>
-    <t>MATA</t>
-  </si>
-  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
@@ -133,33 +139,39 @@
     <t>GOMEZ</t>
   </si>
   <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>VICTORIANO</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>TEQUIHUATLE</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>GALEOTE</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>LEAL</t>
+  </si>
+  <si>
     <t>RAMOS</t>
   </si>
   <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>TEQUIHUATLE</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>GALEOTE</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>LEAL</t>
-  </si>
-  <si>
     <t>VALENCIA</t>
   </si>
   <si>
@@ -175,37 +187,43 @@
     <t>ALETHIA LUCIA</t>
   </si>
   <si>
+    <t>ALDAIR OMAR</t>
+  </si>
+  <si>
+    <t>MARIAN</t>
+  </si>
+  <si>
+    <t>HIRAM FABIAN</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>IGNACIO</t>
+  </si>
+  <si>
+    <t>LUIS ALEJANDRO</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>FERNANDA</t>
+  </si>
+  <si>
+    <t>GERMAN ISAI</t>
+  </si>
+  <si>
+    <t>DINA BERENICE</t>
+  </si>
+  <si>
+    <t>ANGELA</t>
+  </si>
+  <si>
+    <t>CRISTIAN ARTURO</t>
+  </si>
+  <si>
     <t>MONICA</t>
-  </si>
-  <si>
-    <t>HIRAM FABIAN</t>
-  </si>
-  <si>
-    <t>ALEJANDRO</t>
-  </si>
-  <si>
-    <t>IGNACIO</t>
-  </si>
-  <si>
-    <t>LUIS ALEJANDRO</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>FERNANDA</t>
-  </si>
-  <si>
-    <t>GERMAN ISAI</t>
-  </si>
-  <si>
-    <t>DINA BERENICE</t>
-  </si>
-  <si>
-    <t>ANGELA</t>
-  </si>
-  <si>
-    <t>CRISTIAN ARTURO</t>
   </si>
   <si>
     <t>BERENICE</t>
@@ -998,7 +1016,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1039,10 +1057,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1062,10 +1080,10 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1085,10 +1103,10 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1102,16 +1120,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920178</v>
+        <v>20330051920168</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1125,22 +1143,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920042</v>
+        <v>20330051920184</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1148,22 +1166,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920011</v>
+        <v>20330051920042</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1171,16 +1189,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920012</v>
+        <v>20330051920011</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1194,16 +1212,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920027</v>
+        <v>20330051920012</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1217,16 +1235,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920036</v>
+        <v>20330051920027</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1240,22 +1258,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920224</v>
+        <v>20330051920036</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -1263,16 +1281,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20330051920228</v>
+        <v>20330051920224</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1286,22 +1304,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>20330051920158</v>
+        <v>20330051920228</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>6</v>
@@ -1309,16 +1327,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>20330051920161</v>
+        <v>20330051920158</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1332,16 +1350,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>20330051920172</v>
+        <v>20330051920161</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1355,16 +1373,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>20330051920254</v>
+        <v>20330051920172</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -1378,22 +1396,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>20330051920046</v>
+        <v>20330051920178</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17">
         <v>6</v>
@@ -1401,24 +1419,70 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>20330051920111</v>
+        <v>20330051920254</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>20330051920046</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
         <v>12</v>
       </c>
-      <c r="G18">
+      <c r="G19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>20330051920111</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20">
         <v>6</v>
       </c>
     </row>
